--- a/src/CoronaDataHelper/CoronaDataHelper/res/Exp-Example.xlsx
+++ b/src/CoronaDataHelper/CoronaDataHelper/res/Exp-Example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christoph\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\coronaDataHelper\src\CoronaDataHelper\CoronaDataHelper\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05AD121D-4F8B-42B4-8065-F3CB69B26DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36CC646-F99B-46E2-8D86-9E675B7F8953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{233D17F4-F1C4-4491-B917-535F87026414}"/>
   </bookViews>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109AD448-D389-4730-901F-F301F14041E5}">
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" activeCellId="9" sqref="X3:AB3 Y4 X4 W4 V4 U4 T4 S4 R4 Q4"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,8 +2271,116 @@
         <v>444089209850.06873</v>
       </c>
     </row>
-    <row r="17" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB17" s="6"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.75</v>
+      </c>
+      <c r="B19" s="13">
+        <v>20000</v>
+      </c>
+      <c r="C19" s="14">
+        <f>B19*$A$19</f>
+        <v>15000</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" ref="D19:AA19" si="17">C19*$A$19</f>
+        <v>11250</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="17"/>
+        <v>8437.5</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="17"/>
+        <v>6328.125</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="17"/>
+        <v>4746.09375</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="17"/>
+        <v>3559.5703125</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" si="17"/>
+        <v>2669.677734375</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" si="17"/>
+        <v>2002.25830078125</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="17"/>
+        <v>1501.6937255859375</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="17"/>
+        <v>1126.2702941894531</v>
+      </c>
+      <c r="M19" s="14">
+        <f t="shared" si="17"/>
+        <v>844.70272064208984</v>
+      </c>
+      <c r="N19" s="14">
+        <f t="shared" si="17"/>
+        <v>633.52704048156738</v>
+      </c>
+      <c r="O19" s="14">
+        <f t="shared" si="17"/>
+        <v>475.14528036117554</v>
+      </c>
+      <c r="P19" s="14">
+        <f t="shared" si="17"/>
+        <v>356.35896027088165</v>
+      </c>
+      <c r="Q19" s="14">
+        <f t="shared" si="17"/>
+        <v>267.26922020316124</v>
+      </c>
+      <c r="R19" s="14">
+        <f t="shared" si="17"/>
+        <v>200.45191515237093</v>
+      </c>
+      <c r="S19" s="14">
+        <f t="shared" si="17"/>
+        <v>150.3389363642782</v>
+      </c>
+      <c r="T19" s="14">
+        <f t="shared" si="17"/>
+        <v>112.75420227320865</v>
+      </c>
+      <c r="U19" s="14">
+        <f t="shared" si="17"/>
+        <v>84.565651704906486</v>
+      </c>
+      <c r="V19" s="14">
+        <f t="shared" si="17"/>
+        <v>63.424238778679864</v>
+      </c>
+      <c r="W19" s="14">
+        <f t="shared" si="17"/>
+        <v>47.568179084009898</v>
+      </c>
+      <c r="X19" s="14">
+        <f t="shared" si="17"/>
+        <v>35.676134313007424</v>
+      </c>
+      <c r="Y19" s="14">
+        <f t="shared" si="17"/>
+        <v>26.757100734755568</v>
+      </c>
+      <c r="Z19" s="14">
+        <f t="shared" si="17"/>
+        <v>20.067825551066676</v>
+      </c>
+      <c r="AA19" s="14">
+        <f t="shared" si="17"/>
+        <v>15.050869163300007</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/CoronaDataHelper/CoronaDataHelper/res/Exp-Example.xlsx
+++ b/src/CoronaDataHelper/CoronaDataHelper/res/Exp-Example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\coronaDataHelper\src\CoronaDataHelper\CoronaDataHelper\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\coronaDataHelper\src\CoronaDataHelper\CoronaDataHelper\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36CC646-F99B-46E2-8D86-9E675B7F8953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA197A9-1A19-482C-8D97-7D81BEBA5754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{233D17F4-F1C4-4491-B917-535F87026414}"/>
   </bookViews>
@@ -120,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -136,6 +136,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109AD448-D389-4730-901F-F301F14041E5}">
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,6 +2383,1626 @@
         <v>15.050869163300007</v>
       </c>
     </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="15">
+        <v>25000</v>
+      </c>
+      <c r="C25" s="15">
+        <f>B25*$A$25</f>
+        <v>25000</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" ref="D25:AA25" si="18">C25*$A$25</f>
+        <v>25000</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="L25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="M25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="N25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="O25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="P25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="Q25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="R25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="S25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="T25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="U25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="V25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="W25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="X25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="Y25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="Z25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+      <c r="AA25" s="15">
+        <f t="shared" si="18"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="B26" s="15">
+        <v>25000</v>
+      </c>
+      <c r="C26" s="5">
+        <f>B26*$A$26</f>
+        <v>23750</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" ref="D26:AA26" si="19">C26*$A$26</f>
+        <v>22562.5</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="19"/>
+        <v>21434.375</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="19"/>
+        <v>20362.65625</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="19"/>
+        <v>19344.5234375</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="19"/>
+        <v>18377.297265624999</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="19"/>
+        <v>17458.432402343748</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="19"/>
+        <v>16585.51078222656</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="19"/>
+        <v>15756.23524311523</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="19"/>
+        <v>14968.423480959467</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="19"/>
+        <v>14220.002306911494</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="19"/>
+        <v>13509.002191565918</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="19"/>
+        <v>12833.552081987622</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" si="19"/>
+        <v>12191.874477888241</v>
+      </c>
+      <c r="Q26" s="5">
+        <f t="shared" si="19"/>
+        <v>11582.280753993828</v>
+      </c>
+      <c r="R26" s="5">
+        <f t="shared" si="19"/>
+        <v>11003.166716294136</v>
+      </c>
+      <c r="S26" s="5">
+        <f t="shared" si="19"/>
+        <v>10453.008380479429</v>
+      </c>
+      <c r="T26" s="12">
+        <f t="shared" si="19"/>
+        <v>9930.3579614554565</v>
+      </c>
+      <c r="U26" s="12">
+        <f t="shared" si="19"/>
+        <v>9433.8400633826841</v>
+      </c>
+      <c r="V26" s="12">
+        <f t="shared" si="19"/>
+        <v>8962.1480602135489</v>
+      </c>
+      <c r="W26" s="12">
+        <f t="shared" si="19"/>
+        <v>8514.0406572028714</v>
+      </c>
+      <c r="X26" s="12">
+        <f t="shared" si="19"/>
+        <v>8088.3386243427276</v>
+      </c>
+      <c r="Y26" s="12">
+        <f t="shared" si="19"/>
+        <v>7683.9216931255905</v>
+      </c>
+      <c r="Z26" s="12">
+        <f t="shared" si="19"/>
+        <v>7299.7256084693108</v>
+      </c>
+      <c r="AA26" s="12">
+        <f t="shared" si="19"/>
+        <v>6934.7393280458446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B27" s="15">
+        <v>25000</v>
+      </c>
+      <c r="C27" s="5">
+        <f>B27*$A$27</f>
+        <v>22500</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" ref="D27:AA27" si="20">C27*$A$27</f>
+        <v>20250</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="20"/>
+        <v>18225</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="20"/>
+        <v>16402.5</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="20"/>
+        <v>14762.25</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="20"/>
+        <v>13286.025</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="20"/>
+        <v>11957.422500000001</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="20"/>
+        <v>10761.680250000001</v>
+      </c>
+      <c r="K27" s="12">
+        <f t="shared" si="20"/>
+        <v>9685.5122250000022</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" si="20"/>
+        <v>8716.961002500002</v>
+      </c>
+      <c r="M27" s="12">
+        <f t="shared" si="20"/>
+        <v>7845.2649022500018</v>
+      </c>
+      <c r="N27" s="12">
+        <f t="shared" si="20"/>
+        <v>7060.7384120250017</v>
+      </c>
+      <c r="O27" s="12">
+        <f t="shared" si="20"/>
+        <v>6354.6645708225014</v>
+      </c>
+      <c r="P27" s="12">
+        <f t="shared" si="20"/>
+        <v>5719.1981137402518</v>
+      </c>
+      <c r="Q27" s="12">
+        <f t="shared" si="20"/>
+        <v>5147.2783023662269</v>
+      </c>
+      <c r="R27" s="12">
+        <f t="shared" si="20"/>
+        <v>4632.5504721296047</v>
+      </c>
+      <c r="S27" s="12">
+        <f t="shared" si="20"/>
+        <v>4169.2954249166442</v>
+      </c>
+      <c r="T27" s="12">
+        <f t="shared" si="20"/>
+        <v>3752.3658824249796</v>
+      </c>
+      <c r="U27" s="12">
+        <f t="shared" si="20"/>
+        <v>3377.1292941824818</v>
+      </c>
+      <c r="V27" s="12">
+        <f t="shared" si="20"/>
+        <v>3039.4163647642335</v>
+      </c>
+      <c r="W27" s="12">
+        <f t="shared" si="20"/>
+        <v>2735.4747282878102</v>
+      </c>
+      <c r="X27" s="12">
+        <f t="shared" si="20"/>
+        <v>2461.9272554590293</v>
+      </c>
+      <c r="Y27" s="12">
+        <f t="shared" si="20"/>
+        <v>2215.7345299131266</v>
+      </c>
+      <c r="Z27" s="12">
+        <f t="shared" si="20"/>
+        <v>1994.1610769218139</v>
+      </c>
+      <c r="AA27" s="12">
+        <f t="shared" si="20"/>
+        <v>1794.7449692296325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="B28" s="15">
+        <v>25000</v>
+      </c>
+      <c r="C28" s="5">
+        <f>B28*$A$28</f>
+        <v>21250</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" ref="D28:AA28" si="21">C28*$A$28</f>
+        <v>18062.5</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="21"/>
+        <v>15353.125</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="21"/>
+        <v>13050.15625</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="21"/>
+        <v>11092.6328125</v>
+      </c>
+      <c r="H28" s="12">
+        <f t="shared" si="21"/>
+        <v>9428.7378906249996</v>
+      </c>
+      <c r="I28" s="12">
+        <f t="shared" si="21"/>
+        <v>8014.4272070312491</v>
+      </c>
+      <c r="J28" s="12">
+        <f t="shared" si="21"/>
+        <v>6812.2631259765612</v>
+      </c>
+      <c r="K28" s="12">
+        <f t="shared" si="21"/>
+        <v>5790.4236570800767</v>
+      </c>
+      <c r="L28" s="12">
+        <f t="shared" si="21"/>
+        <v>4921.8601085180653</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="shared" si="21"/>
+        <v>4183.5810922403552</v>
+      </c>
+      <c r="N28" s="12">
+        <f t="shared" si="21"/>
+        <v>3556.0439284043018</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" si="21"/>
+        <v>3022.6373391436564</v>
+      </c>
+      <c r="P28" s="12">
+        <f t="shared" si="21"/>
+        <v>2569.2417382721078</v>
+      </c>
+      <c r="Q28" s="12">
+        <f t="shared" si="21"/>
+        <v>2183.8554775312914</v>
+      </c>
+      <c r="R28" s="12">
+        <f t="shared" si="21"/>
+        <v>1856.2771559015976</v>
+      </c>
+      <c r="S28" s="12">
+        <f t="shared" si="21"/>
+        <v>1577.8355825163578</v>
+      </c>
+      <c r="T28" s="12">
+        <f t="shared" si="21"/>
+        <v>1341.1602451389042</v>
+      </c>
+      <c r="U28" s="12">
+        <f t="shared" si="21"/>
+        <v>1139.9862083680684</v>
+      </c>
+      <c r="V28" s="12">
+        <f t="shared" si="21"/>
+        <v>968.9882771128581</v>
+      </c>
+      <c r="W28" s="12">
+        <f t="shared" si="21"/>
+        <v>823.64003554592932</v>
+      </c>
+      <c r="X28" s="12">
+        <f t="shared" si="21"/>
+        <v>700.09403021403989</v>
+      </c>
+      <c r="Y28" s="12">
+        <f t="shared" si="21"/>
+        <v>595.0799256819339</v>
+      </c>
+      <c r="Z28" s="12">
+        <f t="shared" si="21"/>
+        <v>505.81793682964383</v>
+      </c>
+      <c r="AA28" s="12">
+        <f t="shared" si="21"/>
+        <v>429.94524630519726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="B29" s="15">
+        <v>25000</v>
+      </c>
+      <c r="C29" s="5">
+        <f>B29*$A$29</f>
+        <v>20000</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" ref="D29:AA29" si="22">C29*$A$29</f>
+        <v>16000</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="22"/>
+        <v>12800</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="22"/>
+        <v>10240</v>
+      </c>
+      <c r="G29" s="12">
+        <f t="shared" si="22"/>
+        <v>8192</v>
+      </c>
+      <c r="H29" s="12">
+        <f t="shared" si="22"/>
+        <v>6553.6</v>
+      </c>
+      <c r="I29" s="12">
+        <f t="shared" si="22"/>
+        <v>5242.880000000001</v>
+      </c>
+      <c r="J29" s="12">
+        <f t="shared" si="22"/>
+        <v>4194.304000000001</v>
+      </c>
+      <c r="K29" s="12">
+        <f t="shared" si="22"/>
+        <v>3355.4432000000011</v>
+      </c>
+      <c r="L29" s="12">
+        <f t="shared" si="22"/>
+        <v>2684.3545600000011</v>
+      </c>
+      <c r="M29" s="12">
+        <f t="shared" si="22"/>
+        <v>2147.4836480000008</v>
+      </c>
+      <c r="N29" s="12">
+        <f t="shared" si="22"/>
+        <v>1717.9869184000008</v>
+      </c>
+      <c r="O29" s="12">
+        <f t="shared" si="22"/>
+        <v>1374.3895347200007</v>
+      </c>
+      <c r="P29" s="12">
+        <f t="shared" si="22"/>
+        <v>1099.5116277760005</v>
+      </c>
+      <c r="Q29" s="12">
+        <f t="shared" si="22"/>
+        <v>879.60930222080049</v>
+      </c>
+      <c r="R29" s="12">
+        <f t="shared" si="22"/>
+        <v>703.68744177664041</v>
+      </c>
+      <c r="S29" s="12">
+        <f t="shared" si="22"/>
+        <v>562.94995342131233</v>
+      </c>
+      <c r="T29" s="12">
+        <f t="shared" si="22"/>
+        <v>450.3599627370499</v>
+      </c>
+      <c r="U29" s="12">
+        <f t="shared" si="22"/>
+        <v>360.28797018963996</v>
+      </c>
+      <c r="V29" s="12">
+        <f t="shared" si="22"/>
+        <v>288.23037615171199</v>
+      </c>
+      <c r="W29" s="12">
+        <f t="shared" si="22"/>
+        <v>230.58430092136962</v>
+      </c>
+      <c r="X29" s="12">
+        <f t="shared" si="22"/>
+        <v>184.4674407370957</v>
+      </c>
+      <c r="Y29" s="12">
+        <f t="shared" si="22"/>
+        <v>147.57395258967657</v>
+      </c>
+      <c r="Z29" s="12">
+        <f t="shared" si="22"/>
+        <v>118.05916207174126</v>
+      </c>
+      <c r="AA29" s="12">
+        <f t="shared" si="22"/>
+        <v>94.447329657393013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B30" s="15">
+        <v>25000</v>
+      </c>
+      <c r="C30" s="5">
+        <f>B30*$A$30</f>
+        <v>18750</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" ref="D30:AA30" si="23">C30*$A$30</f>
+        <v>14062.5</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="23"/>
+        <v>10546.875</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="23"/>
+        <v>7910.15625</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" si="23"/>
+        <v>5932.6171875</v>
+      </c>
+      <c r="H30" s="12">
+        <f t="shared" si="23"/>
+        <v>4449.462890625</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" si="23"/>
+        <v>3337.09716796875</v>
+      </c>
+      <c r="J30" s="12">
+        <f t="shared" si="23"/>
+        <v>2502.8228759765625</v>
+      </c>
+      <c r="K30" s="12">
+        <f t="shared" si="23"/>
+        <v>1877.1171569824219</v>
+      </c>
+      <c r="L30" s="12">
+        <f t="shared" si="23"/>
+        <v>1407.8378677368164</v>
+      </c>
+      <c r="M30" s="12">
+        <f t="shared" si="23"/>
+        <v>1055.8784008026123</v>
+      </c>
+      <c r="N30" s="12">
+        <f t="shared" si="23"/>
+        <v>791.90880060195923</v>
+      </c>
+      <c r="O30" s="12">
+        <f t="shared" si="23"/>
+        <v>593.93160045146942</v>
+      </c>
+      <c r="P30" s="12">
+        <f t="shared" si="23"/>
+        <v>445.44870033860207</v>
+      </c>
+      <c r="Q30" s="12">
+        <f t="shared" si="23"/>
+        <v>334.08652525395155</v>
+      </c>
+      <c r="R30" s="12">
+        <f t="shared" si="23"/>
+        <v>250.56489394046366</v>
+      </c>
+      <c r="S30" s="12">
+        <f t="shared" si="23"/>
+        <v>187.92367045534775</v>
+      </c>
+      <c r="T30" s="12">
+        <f t="shared" si="23"/>
+        <v>140.94275284151081</v>
+      </c>
+      <c r="U30" s="12">
+        <f t="shared" si="23"/>
+        <v>105.70706463113311</v>
+      </c>
+      <c r="V30" s="12">
+        <f t="shared" si="23"/>
+        <v>79.280298473349831</v>
+      </c>
+      <c r="W30" s="12">
+        <f t="shared" si="23"/>
+        <v>59.460223855012373</v>
+      </c>
+      <c r="X30" s="12">
+        <f t="shared" si="23"/>
+        <v>44.59516789125928</v>
+      </c>
+      <c r="Y30" s="12">
+        <f t="shared" si="23"/>
+        <v>33.44637591844446</v>
+      </c>
+      <c r="Z30" s="12">
+        <f t="shared" si="23"/>
+        <v>25.084781938833345</v>
+      </c>
+      <c r="AA30" s="12">
+        <f t="shared" si="23"/>
+        <v>18.813586454125009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="B31" s="15">
+        <v>25000</v>
+      </c>
+      <c r="C31" s="5">
+        <f>B31*$A$31</f>
+        <v>17500</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" ref="D31:AA31" si="24">C31*$A$31</f>
+        <v>12250</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" si="24"/>
+        <v>8575</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" si="24"/>
+        <v>6002.5</v>
+      </c>
+      <c r="G31" s="12">
+        <f t="shared" si="24"/>
+        <v>4201.75</v>
+      </c>
+      <c r="H31" s="12">
+        <f t="shared" si="24"/>
+        <v>2941.2249999999999</v>
+      </c>
+      <c r="I31" s="12">
+        <f t="shared" si="24"/>
+        <v>2058.8574999999996</v>
+      </c>
+      <c r="J31" s="12">
+        <f t="shared" si="24"/>
+        <v>1441.2002499999996</v>
+      </c>
+      <c r="K31" s="12">
+        <f t="shared" si="24"/>
+        <v>1008.8401749999997</v>
+      </c>
+      <c r="L31" s="12">
+        <f t="shared" si="24"/>
+        <v>706.18812249999974</v>
+      </c>
+      <c r="M31" s="12">
+        <f t="shared" si="24"/>
+        <v>494.33168574999979</v>
+      </c>
+      <c r="N31" s="12">
+        <f t="shared" si="24"/>
+        <v>346.03218002499983</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" si="24"/>
+        <v>242.22252601749986</v>
+      </c>
+      <c r="P31" s="12">
+        <f t="shared" si="24"/>
+        <v>169.55576821224989</v>
+      </c>
+      <c r="Q31" s="12">
+        <f t="shared" si="24"/>
+        <v>118.68903774857492</v>
+      </c>
+      <c r="R31" s="12">
+        <f t="shared" si="24"/>
+        <v>83.082326424002432</v>
+      </c>
+      <c r="S31" s="12">
+        <f t="shared" si="24"/>
+        <v>58.157628496801699</v>
+      </c>
+      <c r="T31" s="12">
+        <f t="shared" si="24"/>
+        <v>40.710339947761184</v>
+      </c>
+      <c r="U31" s="12">
+        <f t="shared" si="24"/>
+        <v>28.497237963432827</v>
+      </c>
+      <c r="V31" s="12">
+        <f t="shared" si="24"/>
+        <v>19.948066574402979</v>
+      </c>
+      <c r="W31" s="12">
+        <f t="shared" si="24"/>
+        <v>13.963646602082084</v>
+      </c>
+      <c r="X31" s="12">
+        <f t="shared" si="24"/>
+        <v>9.7745526214574578</v>
+      </c>
+      <c r="Y31" s="12">
+        <f t="shared" si="24"/>
+        <v>6.84218683502022</v>
+      </c>
+      <c r="Z31" s="12">
+        <f t="shared" si="24"/>
+        <v>4.7895307845141533</v>
+      </c>
+      <c r="AA31" s="12">
+        <f t="shared" si="24"/>
+        <v>3.3526715491599073</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="B32" s="15">
+        <v>25000</v>
+      </c>
+      <c r="C32" s="5">
+        <f>B32*$A$32</f>
+        <v>16250</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" ref="D32:AA32" si="25">C32*$A$32</f>
+        <v>10562.5</v>
+      </c>
+      <c r="E32" s="12">
+        <f t="shared" si="25"/>
+        <v>6865.625</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" si="25"/>
+        <v>4462.65625</v>
+      </c>
+      <c r="G32" s="12">
+        <f t="shared" si="25"/>
+        <v>2900.7265625</v>
+      </c>
+      <c r="H32" s="12">
+        <f t="shared" si="25"/>
+        <v>1885.4722656250001</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" si="25"/>
+        <v>1225.5569726562501</v>
+      </c>
+      <c r="J32" s="12">
+        <f t="shared" si="25"/>
+        <v>796.61203222656263</v>
+      </c>
+      <c r="K32" s="12">
+        <f t="shared" si="25"/>
+        <v>517.79782094726568</v>
+      </c>
+      <c r="L32" s="12">
+        <f t="shared" si="25"/>
+        <v>336.56858361572273</v>
+      </c>
+      <c r="M32" s="12">
+        <f t="shared" si="25"/>
+        <v>218.76957935021977</v>
+      </c>
+      <c r="N32" s="12">
+        <f t="shared" si="25"/>
+        <v>142.20022657764287</v>
+      </c>
+      <c r="O32" s="12">
+        <f t="shared" si="25"/>
+        <v>92.43014727546786</v>
+      </c>
+      <c r="P32" s="12">
+        <f t="shared" si="25"/>
+        <v>60.079595729054112</v>
+      </c>
+      <c r="Q32" s="12">
+        <f t="shared" si="25"/>
+        <v>39.051737223885176</v>
+      </c>
+      <c r="R32" s="12">
+        <f t="shared" si="25"/>
+        <v>25.383629195525366</v>
+      </c>
+      <c r="S32" s="12">
+        <f t="shared" si="25"/>
+        <v>16.499358977091489</v>
+      </c>
+      <c r="T32" s="12">
+        <f t="shared" si="25"/>
+        <v>10.724583335109468</v>
+      </c>
+      <c r="U32" s="12">
+        <f t="shared" si="25"/>
+        <v>6.9709791678211541</v>
+      </c>
+      <c r="V32" s="12">
+        <f t="shared" si="25"/>
+        <v>4.5311364590837506</v>
+      </c>
+      <c r="W32" s="12">
+        <f t="shared" si="25"/>
+        <v>2.9452386984044381</v>
+      </c>
+      <c r="X32" s="12">
+        <f t="shared" si="25"/>
+        <v>1.9144051539628848</v>
+      </c>
+      <c r="Y32" s="12">
+        <f t="shared" si="25"/>
+        <v>1.2443633500758751</v>
+      </c>
+      <c r="Z32" s="12">
+        <f t="shared" si="25"/>
+        <v>0.8088361775493188</v>
+      </c>
+      <c r="AA32" s="12">
+        <f t="shared" si="25"/>
+        <v>0.52574351540705722</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="B33" s="15">
+        <v>25000</v>
+      </c>
+      <c r="C33" s="5">
+        <f>B33*$A$33</f>
+        <v>15000</v>
+      </c>
+      <c r="D33" s="12">
+        <f t="shared" ref="D33:AA33" si="26">C33*$A$33</f>
+        <v>9000</v>
+      </c>
+      <c r="E33" s="12">
+        <f t="shared" si="26"/>
+        <v>5400</v>
+      </c>
+      <c r="F33" s="12">
+        <f t="shared" si="26"/>
+        <v>3240</v>
+      </c>
+      <c r="G33" s="12">
+        <f t="shared" si="26"/>
+        <v>1944</v>
+      </c>
+      <c r="H33" s="12">
+        <f t="shared" si="26"/>
+        <v>1166.3999999999999</v>
+      </c>
+      <c r="I33" s="12">
+        <f t="shared" si="26"/>
+        <v>699.83999999999992</v>
+      </c>
+      <c r="J33" s="12">
+        <f t="shared" si="26"/>
+        <v>419.90399999999994</v>
+      </c>
+      <c r="K33" s="12">
+        <f t="shared" si="26"/>
+        <v>251.94239999999996</v>
+      </c>
+      <c r="L33" s="12">
+        <f t="shared" si="26"/>
+        <v>151.16543999999996</v>
+      </c>
+      <c r="M33" s="12">
+        <f t="shared" si="26"/>
+        <v>90.699263999999971</v>
+      </c>
+      <c r="N33" s="12">
+        <f t="shared" si="26"/>
+        <v>54.419558399999978</v>
+      </c>
+      <c r="O33" s="12">
+        <f t="shared" si="26"/>
+        <v>32.651735039999984</v>
+      </c>
+      <c r="P33" s="12">
+        <f t="shared" si="26"/>
+        <v>19.591041023999988</v>
+      </c>
+      <c r="Q33" s="12">
+        <f t="shared" si="26"/>
+        <v>11.754624614399992</v>
+      </c>
+      <c r="R33" s="12">
+        <f t="shared" si="26"/>
+        <v>7.0527747686399946</v>
+      </c>
+      <c r="S33" s="12">
+        <f t="shared" si="26"/>
+        <v>4.2316648611839964</v>
+      </c>
+      <c r="T33" s="12">
+        <f t="shared" si="26"/>
+        <v>2.5389989167103977</v>
+      </c>
+      <c r="U33" s="12">
+        <f t="shared" si="26"/>
+        <v>1.5233993500262386</v>
+      </c>
+      <c r="V33" s="12">
+        <f t="shared" si="26"/>
+        <v>0.91403961001574308</v>
+      </c>
+      <c r="W33" s="12">
+        <f t="shared" si="26"/>
+        <v>0.54842376600944587</v>
+      </c>
+      <c r="X33" s="12">
+        <f t="shared" si="26"/>
+        <v>0.32905425960566753</v>
+      </c>
+      <c r="Y33" s="12">
+        <f t="shared" si="26"/>
+        <v>0.19743255576340052</v>
+      </c>
+      <c r="Z33" s="12">
+        <f t="shared" si="26"/>
+        <v>0.11845953345804031</v>
+      </c>
+      <c r="AA33" s="12">
+        <f t="shared" si="26"/>
+        <v>7.1075720074824184E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B34" s="15">
+        <v>25000</v>
+      </c>
+      <c r="C34" s="5">
+        <f>B34*$A$34</f>
+        <v>13750.000000000002</v>
+      </c>
+      <c r="D34" s="12">
+        <f t="shared" ref="D34:AA34" si="27">C34*$A$34</f>
+        <v>7562.5000000000018</v>
+      </c>
+      <c r="E34" s="12">
+        <f t="shared" si="27"/>
+        <v>4159.3750000000009</v>
+      </c>
+      <c r="F34" s="12">
+        <f t="shared" si="27"/>
+        <v>2287.6562500000009</v>
+      </c>
+      <c r="G34" s="12">
+        <f t="shared" si="27"/>
+        <v>1258.2109375000007</v>
+      </c>
+      <c r="H34" s="12">
+        <f t="shared" si="27"/>
+        <v>692.01601562500048</v>
+      </c>
+      <c r="I34" s="12">
+        <f t="shared" si="27"/>
+        <v>380.60880859375027</v>
+      </c>
+      <c r="J34" s="12">
+        <f t="shared" si="27"/>
+        <v>209.33484472656266</v>
+      </c>
+      <c r="K34" s="12">
+        <f t="shared" si="27"/>
+        <v>115.13416459960948</v>
+      </c>
+      <c r="L34" s="12">
+        <f t="shared" si="27"/>
+        <v>63.323790529785221</v>
+      </c>
+      <c r="M34" s="12">
+        <f t="shared" si="27"/>
+        <v>34.828084791381876</v>
+      </c>
+      <c r="N34" s="12">
+        <f t="shared" si="27"/>
+        <v>19.155446635260034</v>
+      </c>
+      <c r="O34" s="12">
+        <f t="shared" si="27"/>
+        <v>10.53549564939302</v>
+      </c>
+      <c r="P34" s="12">
+        <f t="shared" si="27"/>
+        <v>5.7945226071661615</v>
+      </c>
+      <c r="Q34" s="12">
+        <f t="shared" si="27"/>
+        <v>3.1869874339413893</v>
+      </c>
+      <c r="R34" s="12">
+        <f t="shared" si="27"/>
+        <v>1.7528430886677642</v>
+      </c>
+      <c r="S34" s="12">
+        <f t="shared" si="27"/>
+        <v>0.96406369876727038</v>
+      </c>
+      <c r="T34" s="12">
+        <f t="shared" si="27"/>
+        <v>0.5302350343219987</v>
+      </c>
+      <c r="U34" s="12">
+        <f t="shared" si="27"/>
+        <v>0.29162926887709933</v>
+      </c>
+      <c r="V34" s="12">
+        <f t="shared" si="27"/>
+        <v>0.16039609788240464</v>
+      </c>
+      <c r="W34" s="12">
+        <f t="shared" si="27"/>
+        <v>8.821785383532256E-2</v>
+      </c>
+      <c r="X34" s="12">
+        <f t="shared" si="27"/>
+        <v>4.851981960942741E-2</v>
+      </c>
+      <c r="Y34" s="12">
+        <f t="shared" si="27"/>
+        <v>2.6685900785185079E-2</v>
+      </c>
+      <c r="Z34" s="12">
+        <f t="shared" si="27"/>
+        <v>1.4677245431851794E-2</v>
+      </c>
+      <c r="AA34" s="12">
+        <f t="shared" si="27"/>
+        <v>8.0724849875184867E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="B35" s="15">
+        <v>25000</v>
+      </c>
+      <c r="C35" s="5">
+        <f>B35*$A$35</f>
+        <v>12500</v>
+      </c>
+      <c r="D35" s="12">
+        <f t="shared" ref="D35:AA35" si="28">C35*$A$35</f>
+        <v>6250</v>
+      </c>
+      <c r="E35" s="12">
+        <f t="shared" si="28"/>
+        <v>3125</v>
+      </c>
+      <c r="F35" s="12">
+        <f t="shared" si="28"/>
+        <v>1562.5</v>
+      </c>
+      <c r="G35" s="12">
+        <f t="shared" si="28"/>
+        <v>781.25</v>
+      </c>
+      <c r="H35" s="12">
+        <f t="shared" si="28"/>
+        <v>390.625</v>
+      </c>
+      <c r="I35" s="12">
+        <f t="shared" si="28"/>
+        <v>195.3125</v>
+      </c>
+      <c r="J35" s="12">
+        <f t="shared" si="28"/>
+        <v>97.65625</v>
+      </c>
+      <c r="K35" s="12">
+        <f t="shared" si="28"/>
+        <v>48.828125</v>
+      </c>
+      <c r="L35" s="12">
+        <f t="shared" si="28"/>
+        <v>24.4140625</v>
+      </c>
+      <c r="M35" s="12">
+        <f t="shared" si="28"/>
+        <v>12.20703125</v>
+      </c>
+      <c r="N35" s="12">
+        <f t="shared" si="28"/>
+        <v>6.103515625</v>
+      </c>
+      <c r="O35" s="12">
+        <f t="shared" si="28"/>
+        <v>3.0517578125</v>
+      </c>
+      <c r="P35" s="12">
+        <f t="shared" si="28"/>
+        <v>1.52587890625</v>
+      </c>
+      <c r="Q35" s="12">
+        <f t="shared" si="28"/>
+        <v>0.762939453125</v>
+      </c>
+      <c r="R35" s="12">
+        <f t="shared" si="28"/>
+        <v>0.3814697265625</v>
+      </c>
+      <c r="S35" s="12">
+        <f t="shared" si="28"/>
+        <v>0.19073486328125</v>
+      </c>
+      <c r="T35" s="12">
+        <f t="shared" si="28"/>
+        <v>9.5367431640625E-2</v>
+      </c>
+      <c r="U35" s="12">
+        <f t="shared" si="28"/>
+        <v>4.76837158203125E-2</v>
+      </c>
+      <c r="V35" s="12">
+        <f t="shared" si="28"/>
+        <v>2.384185791015625E-2</v>
+      </c>
+      <c r="W35" s="12">
+        <f t="shared" si="28"/>
+        <v>1.1920928955078125E-2</v>
+      </c>
+      <c r="X35" s="12">
+        <f t="shared" si="28"/>
+        <v>5.9604644775390625E-3</v>
+      </c>
+      <c r="Y35" s="12">
+        <f t="shared" si="28"/>
+        <v>2.9802322387695313E-3</v>
+      </c>
+      <c r="Z35" s="12">
+        <f t="shared" si="28"/>
+        <v>1.4901161193847656E-3</v>
+      </c>
+      <c r="AA35" s="12">
+        <f t="shared" si="28"/>
+        <v>7.4505805969238281E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="B36" s="15">
+        <v>25000</v>
+      </c>
+      <c r="C36" s="5">
+        <f>B36*$A$36</f>
+        <v>11250</v>
+      </c>
+      <c r="D36" s="12">
+        <f t="shared" ref="D36:AA36" si="29">C36*$A$36</f>
+        <v>5062.5</v>
+      </c>
+      <c r="E36" s="12">
+        <f t="shared" si="29"/>
+        <v>2278.125</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" si="29"/>
+        <v>1025.15625</v>
+      </c>
+      <c r="G36" s="12">
+        <f t="shared" si="29"/>
+        <v>461.3203125</v>
+      </c>
+      <c r="H36" s="12">
+        <f t="shared" si="29"/>
+        <v>207.59414062499999</v>
+      </c>
+      <c r="I36" s="12">
+        <f t="shared" si="29"/>
+        <v>93.417363281250005</v>
+      </c>
+      <c r="J36" s="12">
+        <f t="shared" si="29"/>
+        <v>42.037813476562505</v>
+      </c>
+      <c r="K36" s="12">
+        <f t="shared" si="29"/>
+        <v>18.917016064453129</v>
+      </c>
+      <c r="L36" s="12">
+        <f t="shared" si="29"/>
+        <v>8.5126572290039082</v>
+      </c>
+      <c r="M36" s="12">
+        <f t="shared" si="29"/>
+        <v>3.8306957530517587</v>
+      </c>
+      <c r="N36" s="12">
+        <f t="shared" si="29"/>
+        <v>1.7238130888732914</v>
+      </c>
+      <c r="O36" s="12">
+        <f t="shared" si="29"/>
+        <v>0.77571588999298113</v>
+      </c>
+      <c r="P36" s="12">
+        <f t="shared" si="29"/>
+        <v>0.34907215049684154</v>
+      </c>
+      <c r="Q36" s="12">
+        <f t="shared" si="29"/>
+        <v>0.1570824677235787</v>
+      </c>
+      <c r="R36" s="12">
+        <f t="shared" si="29"/>
+        <v>7.0687110475610423E-2</v>
+      </c>
+      <c r="S36" s="12">
+        <f t="shared" si="29"/>
+        <v>3.180919971402469E-2</v>
+      </c>
+      <c r="T36" s="12">
+        <f t="shared" si="29"/>
+        <v>1.431413987131111E-2</v>
+      </c>
+      <c r="U36" s="12">
+        <f t="shared" si="29"/>
+        <v>6.4413629420899997E-3</v>
+      </c>
+      <c r="V36" s="12">
+        <f t="shared" si="29"/>
+        <v>2.8986133239404998E-3</v>
+      </c>
+      <c r="W36" s="12">
+        <f t="shared" si="29"/>
+        <v>1.3043759957732249E-3</v>
+      </c>
+      <c r="X36" s="12">
+        <f t="shared" si="29"/>
+        <v>5.8696919809795125E-4</v>
+      </c>
+      <c r="Y36" s="12">
+        <f t="shared" si="29"/>
+        <v>2.6413613914407809E-4</v>
+      </c>
+      <c r="Z36" s="12">
+        <f t="shared" si="29"/>
+        <v>1.1886126261483514E-4</v>
+      </c>
+      <c r="AA36" s="12">
+        <f t="shared" si="29"/>
+        <v>5.3487568176675811E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="B37" s="15">
+        <v>25000</v>
+      </c>
+      <c r="C37" s="5">
+        <f>B37*$A$37</f>
+        <v>10000</v>
+      </c>
+      <c r="D37" s="12">
+        <f t="shared" ref="D37:AA37" si="30">C37*$A$37</f>
+        <v>4000</v>
+      </c>
+      <c r="E37" s="12">
+        <f t="shared" si="30"/>
+        <v>1600</v>
+      </c>
+      <c r="F37" s="12">
+        <f t="shared" si="30"/>
+        <v>640</v>
+      </c>
+      <c r="G37" s="12">
+        <f t="shared" si="30"/>
+        <v>256</v>
+      </c>
+      <c r="H37" s="12">
+        <f t="shared" si="30"/>
+        <v>102.4</v>
+      </c>
+      <c r="I37" s="12">
+        <f t="shared" si="30"/>
+        <v>40.960000000000008</v>
+      </c>
+      <c r="J37" s="12">
+        <f t="shared" si="30"/>
+        <v>16.384000000000004</v>
+      </c>
+      <c r="K37" s="12">
+        <f t="shared" si="30"/>
+        <v>6.5536000000000021</v>
+      </c>
+      <c r="L37" s="12">
+        <f t="shared" si="30"/>
+        <v>2.6214400000000011</v>
+      </c>
+      <c r="M37" s="12">
+        <f t="shared" si="30"/>
+        <v>1.0485760000000004</v>
+      </c>
+      <c r="N37" s="12">
+        <f t="shared" si="30"/>
+        <v>0.4194304000000002</v>
+      </c>
+      <c r="O37" s="12">
+        <f t="shared" si="30"/>
+        <v>0.16777216000000009</v>
+      </c>
+      <c r="P37" s="12">
+        <f t="shared" si="30"/>
+        <v>6.7108864000000032E-2</v>
+      </c>
+      <c r="Q37" s="12">
+        <f t="shared" si="30"/>
+        <v>2.6843545600000015E-2</v>
+      </c>
+      <c r="R37" s="12">
+        <f t="shared" si="30"/>
+        <v>1.0737418240000006E-2</v>
+      </c>
+      <c r="S37" s="12">
+        <f t="shared" si="30"/>
+        <v>4.2949672960000025E-3</v>
+      </c>
+      <c r="T37" s="12">
+        <f t="shared" si="30"/>
+        <v>1.7179869184000011E-3</v>
+      </c>
+      <c r="U37" s="12">
+        <f t="shared" si="30"/>
+        <v>6.8719476736000054E-4</v>
+      </c>
+      <c r="V37" s="12">
+        <f t="shared" si="30"/>
+        <v>2.7487790694400024E-4</v>
+      </c>
+      <c r="W37" s="12">
+        <f t="shared" si="30"/>
+        <v>1.0995116277760011E-4</v>
+      </c>
+      <c r="X37" s="12">
+        <f t="shared" si="30"/>
+        <v>4.3980465111040044E-5</v>
+      </c>
+      <c r="Y37" s="12">
+        <f t="shared" si="30"/>
+        <v>1.7592186044416018E-5</v>
+      </c>
+      <c r="Z37" s="12">
+        <f t="shared" si="30"/>
+        <v>7.0368744177664074E-6</v>
+      </c>
+      <c r="AA37" s="12">
+        <f t="shared" si="30"/>
+        <v>2.8147497671065632E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="B38" s="15">
+        <v>25000</v>
+      </c>
+      <c r="C38" s="12">
+        <f>B38*$A$38</f>
+        <v>8750</v>
+      </c>
+      <c r="D38" s="12">
+        <f t="shared" ref="D38:AA38" si="31">C38*$A$38</f>
+        <v>3062.5</v>
+      </c>
+      <c r="E38" s="12">
+        <f t="shared" si="31"/>
+        <v>1071.875</v>
+      </c>
+      <c r="F38" s="12">
+        <f t="shared" si="31"/>
+        <v>375.15625</v>
+      </c>
+      <c r="G38" s="12">
+        <f t="shared" si="31"/>
+        <v>131.3046875</v>
+      </c>
+      <c r="H38" s="12">
+        <f t="shared" si="31"/>
+        <v>45.956640624999999</v>
+      </c>
+      <c r="I38" s="12">
+        <f t="shared" si="31"/>
+        <v>16.084824218749997</v>
+      </c>
+      <c r="J38" s="12">
+        <f t="shared" si="31"/>
+        <v>5.6296884765624986</v>
+      </c>
+      <c r="K38" s="12">
+        <f t="shared" si="31"/>
+        <v>1.9703909667968744</v>
+      </c>
+      <c r="L38" s="12">
+        <f t="shared" si="31"/>
+        <v>0.68963683837890599</v>
+      </c>
+      <c r="M38" s="12">
+        <f t="shared" si="31"/>
+        <v>0.24137289343261709</v>
+      </c>
+      <c r="N38" s="12">
+        <f t="shared" si="31"/>
+        <v>8.4480512701415975E-2</v>
+      </c>
+      <c r="O38" s="12">
+        <f t="shared" si="31"/>
+        <v>2.9568179445495588E-2</v>
+      </c>
+      <c r="P38" s="12">
+        <f t="shared" si="31"/>
+        <v>1.0348862805923455E-2</v>
+      </c>
+      <c r="Q38" s="12">
+        <f t="shared" si="31"/>
+        <v>3.6221019820732092E-3</v>
+      </c>
+      <c r="R38" s="12">
+        <f t="shared" si="31"/>
+        <v>1.267735693725623E-3</v>
+      </c>
+      <c r="S38" s="12">
+        <f t="shared" si="31"/>
+        <v>4.4370749280396804E-4</v>
+      </c>
+      <c r="T38" s="12">
+        <f t="shared" si="31"/>
+        <v>1.552976224813888E-4</v>
+      </c>
+      <c r="U38" s="12">
+        <f t="shared" si="31"/>
+        <v>5.4354167868486074E-5</v>
+      </c>
+      <c r="V38" s="12">
+        <f t="shared" si="31"/>
+        <v>1.9023958753970126E-5</v>
+      </c>
+      <c r="W38" s="12">
+        <f t="shared" si="31"/>
+        <v>6.6583855638895437E-6</v>
+      </c>
+      <c r="X38" s="12">
+        <f t="shared" si="31"/>
+        <v>2.33043494736134E-6</v>
+      </c>
+      <c r="Y38" s="12">
+        <f t="shared" si="31"/>
+        <v>8.1565223157646894E-7</v>
+      </c>
+      <c r="Z38" s="12">
+        <f t="shared" si="31"/>
+        <v>2.8547828105176409E-7</v>
+      </c>
+      <c r="AA38" s="12">
+        <f t="shared" si="31"/>
+        <v>9.991739836811743E-8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="B39" s="15">
+        <v>25000</v>
+      </c>
+      <c r="C39" s="12">
+        <f>B39*$A$39</f>
+        <v>7500</v>
+      </c>
+      <c r="D39" s="12">
+        <f t="shared" ref="D39:AA39" si="32">C39*$A$39</f>
+        <v>2250</v>
+      </c>
+      <c r="E39" s="12">
+        <f t="shared" si="32"/>
+        <v>675</v>
+      </c>
+      <c r="F39" s="12">
+        <f t="shared" si="32"/>
+        <v>202.5</v>
+      </c>
+      <c r="G39" s="12">
+        <f t="shared" si="32"/>
+        <v>60.75</v>
+      </c>
+      <c r="H39" s="12">
+        <f t="shared" si="32"/>
+        <v>18.224999999999998</v>
+      </c>
+      <c r="I39" s="12">
+        <f t="shared" si="32"/>
+        <v>5.4674999999999994</v>
+      </c>
+      <c r="J39" s="12">
+        <f t="shared" si="32"/>
+        <v>1.6402499999999998</v>
+      </c>
+      <c r="K39" s="12">
+        <f t="shared" si="32"/>
+        <v>0.49207499999999993</v>
+      </c>
+      <c r="L39" s="12">
+        <f t="shared" si="32"/>
+        <v>0.14762249999999996</v>
+      </c>
+      <c r="M39" s="12">
+        <f t="shared" si="32"/>
+        <v>4.4286749999999986E-2</v>
+      </c>
+      <c r="N39" s="12">
+        <f t="shared" si="32"/>
+        <v>1.3286024999999995E-2</v>
+      </c>
+      <c r="O39" s="12">
+        <f t="shared" si="32"/>
+        <v>3.9858074999999981E-3</v>
+      </c>
+      <c r="P39" s="12">
+        <f t="shared" si="32"/>
+        <v>1.1957422499999993E-3</v>
+      </c>
+      <c r="Q39" s="12">
+        <f t="shared" si="32"/>
+        <v>3.5872267499999975E-4</v>
+      </c>
+      <c r="R39" s="12">
+        <f t="shared" si="32"/>
+        <v>1.0761680249999992E-4</v>
+      </c>
+      <c r="S39" s="12">
+        <f t="shared" si="32"/>
+        <v>3.2285040749999973E-5</v>
+      </c>
+      <c r="T39" s="12">
+        <f t="shared" si="32"/>
+        <v>9.6855122249999911E-6</v>
+      </c>
+      <c r="U39" s="12">
+        <f t="shared" si="32"/>
+        <v>2.9056536674999973E-6</v>
+      </c>
+      <c r="V39" s="12">
+        <f t="shared" si="32"/>
+        <v>8.7169610024999912E-7</v>
+      </c>
+      <c r="W39" s="12">
+        <f t="shared" si="32"/>
+        <v>2.6150883007499975E-7</v>
+      </c>
+      <c r="X39" s="12">
+        <f t="shared" si="32"/>
+        <v>7.8452649022499927E-8</v>
+      </c>
+      <c r="Y39" s="12">
+        <f t="shared" si="32"/>
+        <v>2.3535794706749978E-8</v>
+      </c>
+      <c r="Z39" s="12">
+        <f t="shared" si="32"/>
+        <v>7.0607384120249931E-9</v>
+      </c>
+      <c r="AA39" s="12">
+        <f t="shared" si="32"/>
+        <v>2.1182215236074979E-9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
